--- a/Code/Results/Cases/Case_2_76/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_76/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.005836934207256</v>
+        <v>1.027081630696739</v>
       </c>
       <c r="D2">
-        <v>1.022454878380618</v>
+        <v>1.031976431707556</v>
       </c>
       <c r="E2">
-        <v>1.01935464407713</v>
+        <v>1.051185743070378</v>
       </c>
       <c r="F2">
-        <v>1.026139464683326</v>
+        <v>1.056252872354429</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047278532525253</v>
+        <v>1.036484085736854</v>
       </c>
       <c r="J2">
-        <v>1.027844454222728</v>
+        <v>1.032241487854122</v>
       </c>
       <c r="K2">
-        <v>1.033609999748591</v>
+        <v>1.034782994692483</v>
       </c>
       <c r="L2">
-        <v>1.030550765683141</v>
+        <v>1.053937944986846</v>
       </c>
       <c r="M2">
-        <v>1.037246261456249</v>
+        <v>1.058991091804023</v>
       </c>
       <c r="N2">
-        <v>1.013276154155373</v>
+        <v>1.014789840171217</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.009379925561688</v>
+        <v>1.027819378218896</v>
       </c>
       <c r="D3">
-        <v>1.024969691784897</v>
+        <v>1.032516163129518</v>
       </c>
       <c r="E3">
-        <v>1.023718703598022</v>
+        <v>1.052201094046537</v>
       </c>
       <c r="F3">
-        <v>1.030579499735339</v>
+        <v>1.05727489483773</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048386489729902</v>
+        <v>1.036658014836282</v>
       </c>
       <c r="J3">
-        <v>1.029618109906449</v>
+        <v>1.032620357739459</v>
       </c>
       <c r="K3">
-        <v>1.035292746335424</v>
+        <v>1.035132122626628</v>
       </c>
       <c r="L3">
-        <v>1.034056833905656</v>
+        <v>1.054765370111054</v>
       </c>
       <c r="M3">
-        <v>1.040835507841295</v>
+        <v>1.059826185945831</v>
       </c>
       <c r="N3">
-        <v>1.013862806829657</v>
+        <v>1.014915043249939</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.011629611813442</v>
+        <v>1.028297121612007</v>
       </c>
       <c r="D4">
-        <v>1.026568425595144</v>
+        <v>1.032865646051346</v>
       </c>
       <c r="E4">
-        <v>1.026495547014947</v>
+        <v>1.052859331786878</v>
       </c>
       <c r="F4">
-        <v>1.033402934770603</v>
+        <v>1.057937252715385</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049079590602093</v>
+        <v>1.036769379671436</v>
       </c>
       <c r="J4">
-        <v>1.030740437756612</v>
+        <v>1.0328651907583</v>
       </c>
       <c r="K4">
-        <v>1.036356428709392</v>
+        <v>1.03535756313696</v>
       </c>
       <c r="L4">
-        <v>1.036284374534081</v>
+        <v>1.055301395536222</v>
       </c>
       <c r="M4">
-        <v>1.043114261548</v>
+        <v>1.06036697753495</v>
       </c>
       <c r="N4">
-        <v>1.014234044610094</v>
+        <v>1.014995944155833</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.012565412425942</v>
+        <v>1.028498052129278</v>
       </c>
       <c r="D5">
-        <v>1.027233872968668</v>
+        <v>1.033012624550583</v>
       </c>
       <c r="E5">
-        <v>1.027652075787579</v>
+        <v>1.053136350057217</v>
       </c>
       <c r="F5">
-        <v>1.034578443246076</v>
+        <v>1.058215955884468</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049365369114203</v>
+        <v>1.036815914449214</v>
       </c>
       <c r="J5">
-        <v>1.031206339368399</v>
+        <v>1.032968040560766</v>
       </c>
       <c r="K5">
-        <v>1.036797707704505</v>
+        <v>1.035452224986213</v>
       </c>
       <c r="L5">
-        <v>1.037211307759234</v>
+        <v>1.055526889431897</v>
       </c>
       <c r="M5">
-        <v>1.044062107049325</v>
+        <v>1.060594428036845</v>
       </c>
       <c r="N5">
-        <v>1.014388156392497</v>
+        <v>1.015029927248775</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.012721961304543</v>
+        <v>1.028531794310324</v>
       </c>
       <c r="D6">
-        <v>1.027345218675332</v>
+        <v>1.033037306113961</v>
       </c>
       <c r="E6">
-        <v>1.02784563659032</v>
+        <v>1.053182879915242</v>
       </c>
       <c r="F6">
-        <v>1.03477515542435</v>
+        <v>1.058262765873286</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049413027006539</v>
+        <v>1.036823711225815</v>
       </c>
       <c r="J6">
-        <v>1.031284222890698</v>
+        <v>1.032985304888719</v>
       </c>
       <c r="K6">
-        <v>1.036871458546914</v>
+        <v>1.035468112447218</v>
       </c>
       <c r="L6">
-        <v>1.037366394406563</v>
+        <v>1.055564759544347</v>
       </c>
       <c r="M6">
-        <v>1.044220668930765</v>
+        <v>1.060632623907335</v>
       </c>
       <c r="N6">
-        <v>1.014413919009157</v>
+        <v>1.015035631526975</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.011642154810394</v>
+        <v>1.028299806114956</v>
       </c>
       <c r="D7">
-        <v>1.026577343288913</v>
+        <v>1.032867609767851</v>
       </c>
       <c r="E7">
-        <v>1.026511042756226</v>
+        <v>1.05286303216042</v>
       </c>
       <c r="F7">
-        <v>1.033418686496221</v>
+        <v>1.057940975788243</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049083431064908</v>
+        <v>1.036770002584359</v>
       </c>
       <c r="J7">
-        <v>1.030746686252717</v>
+        <v>1.032866565350281</v>
       </c>
       <c r="K7">
-        <v>1.036362348085378</v>
+        <v>1.035358828460029</v>
       </c>
       <c r="L7">
-        <v>1.036296797274208</v>
+        <v>1.055304408013314</v>
       </c>
       <c r="M7">
-        <v>1.043126966137196</v>
+        <v>1.060370016341488</v>
       </c>
       <c r="N7">
-        <v>1.014236111487383</v>
+        <v>1.014996398348712</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.007043361951897</v>
+        <v>1.027330877986616</v>
       </c>
       <c r="D8">
-        <v>1.023310779181916</v>
+        <v>1.032158785616958</v>
       </c>
       <c r="E8">
-        <v>1.020839472197142</v>
+        <v>1.051528628676912</v>
       </c>
       <c r="F8">
-        <v>1.027650505938386</v>
+        <v>1.056598053311973</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047657967081054</v>
+        <v>1.036543109535508</v>
       </c>
       <c r="J8">
-        <v>1.028449205562197</v>
+        <v>1.032369594525596</v>
       </c>
       <c r="K8">
-        <v>1.034183984226267</v>
+        <v>1.034901080446795</v>
       </c>
       <c r="L8">
-        <v>1.03174436887609</v>
+        <v>1.054217446911642</v>
       </c>
       <c r="M8">
-        <v>1.038468519473524</v>
+        <v>1.059273226063735</v>
       </c>
       <c r="N8">
-        <v>1.013476176826039</v>
+        <v>1.014832176478643</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9985975053347462</v>
+        <v>1.025626423547644</v>
       </c>
       <c r="D9">
-        <v>1.017328389702096</v>
+        <v>1.030911665571131</v>
       </c>
       <c r="E9">
-        <v>1.010466877550344</v>
+        <v>1.049186772138971</v>
       </c>
       <c r="F9">
-        <v>1.017087624490342</v>
+        <v>1.054239682531164</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044958852881794</v>
+        <v>1.036134299557895</v>
       </c>
       <c r="J9">
-        <v>1.024199886697284</v>
+        <v>1.031491458371867</v>
       </c>
       <c r="K9">
-        <v>1.030146445560739</v>
+        <v>1.034090931986845</v>
       </c>
       <c r="L9">
-        <v>1.023392389231875</v>
+        <v>1.052306924625686</v>
       </c>
       <c r="M9">
-        <v>1.029909419527322</v>
+        <v>1.057343886025878</v>
       </c>
       <c r="N9">
-        <v>1.012070821619122</v>
+        <v>1.014541941759744</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9927164016314789</v>
+        <v>1.024492186793902</v>
       </c>
       <c r="D10">
-        <v>1.013176417918297</v>
+        <v>1.030081644689576</v>
       </c>
       <c r="E10">
-        <v>1.003269759370202</v>
+        <v>1.047632014581135</v>
       </c>
       <c r="F10">
-        <v>1.009749627246873</v>
+        <v>1.05267291103865</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043026409072183</v>
+        <v>1.035855756887132</v>
       </c>
       <c r="J10">
-        <v>1.02122201033811</v>
+        <v>1.03090448040382</v>
       </c>
       <c r="K10">
-        <v>1.027311774828528</v>
+        <v>1.033548522980391</v>
       </c>
       <c r="L10">
-        <v>1.017580227200341</v>
+        <v>1.051036561722458</v>
       </c>
       <c r="M10">
-        <v>1.023945052499394</v>
+        <v>1.056059978149116</v>
       </c>
       <c r="N10">
-        <v>1.011086153692631</v>
+        <v>1.014347900407533</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9901055140739972</v>
+        <v>1.024001561398558</v>
       </c>
       <c r="D11">
-        <v>1.011336983112269</v>
+        <v>1.029722588409846</v>
       </c>
       <c r="E11">
-        <v>1.000079827732245</v>
+        <v>1.046960339044985</v>
       </c>
       <c r="F11">
-        <v>1.006495238346456</v>
+        <v>1.051995796335812</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042156376642461</v>
+        <v>1.035733730592286</v>
       </c>
       <c r="J11">
-        <v>1.019895788060436</v>
+        <v>1.030649957903153</v>
       </c>
       <c r="K11">
-        <v>1.026048221309186</v>
+        <v>1.033313120448971</v>
       </c>
       <c r="L11">
-        <v>1.015000238776143</v>
+        <v>1.050487280764635</v>
       </c>
       <c r="M11">
-        <v>1.021295694773395</v>
+        <v>1.055504596412129</v>
       </c>
       <c r="N11">
-        <v>1.010647682517818</v>
+        <v>1.014263752421027</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9891256053908994</v>
+        <v>1.023819399125641</v>
       </c>
       <c r="D12">
-        <v>1.010647234602145</v>
+        <v>1.0295892729924</v>
       </c>
       <c r="E12">
-        <v>0.9988832952000115</v>
+        <v>1.046711082076628</v>
       </c>
       <c r="F12">
-        <v>1.00527423257757</v>
+        <v>1.05174448350173</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041828053206881</v>
+        <v>1.035688192679507</v>
       </c>
       <c r="J12">
-        <v>1.019397427488739</v>
+        <v>1.030555364372796</v>
       </c>
       <c r="K12">
-        <v>1.025573254245483</v>
+        <v>1.033225602119187</v>
       </c>
       <c r="L12">
-        <v>1.014031920828621</v>
+        <v>1.050283373757654</v>
       </c>
       <c r="M12">
-        <v>1.020301079428044</v>
+        <v>1.055298388008442</v>
       </c>
       <c r="N12">
-        <v>1.010482926252692</v>
+        <v>1.014232477452472</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9893362639914558</v>
+        <v>1.023858470001129</v>
       </c>
       <c r="D13">
-        <v>1.010795486334973</v>
+        <v>1.02961786712704</v>
       </c>
       <c r="E13">
-        <v>0.9991404927690525</v>
+        <v>1.046764537969669</v>
       </c>
       <c r="F13">
-        <v>1.005536703961031</v>
+        <v>1.051798381990604</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041898715566865</v>
+        <v>1.035697970293932</v>
       </c>
       <c r="J13">
-        <v>1.019504591005339</v>
+        <v>1.030575657365797</v>
       </c>
       <c r="K13">
-        <v>1.02567539427165</v>
+        <v>1.03324437867013</v>
       </c>
       <c r="L13">
-        <v>1.014240088797628</v>
+        <v>1.050327107038104</v>
       </c>
       <c r="M13">
-        <v>1.020514912456061</v>
+        <v>1.055342616541608</v>
       </c>
       <c r="N13">
-        <v>1.010518353664461</v>
+        <v>1.014239186877517</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9900247233919657</v>
+        <v>1.023986502210239</v>
       </c>
       <c r="D14">
-        <v>1.011280102390236</v>
+        <v>1.029711567402686</v>
       </c>
       <c r="E14">
-        <v>0.9999811632531439</v>
+        <v>1.046939730621678</v>
       </c>
       <c r="F14">
-        <v>1.006394561803238</v>
+        <v>1.051975018697976</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042129343413617</v>
+        <v>1.035729970732866</v>
       </c>
       <c r="J14">
-        <v>1.019854711864048</v>
+        <v>1.030642139837777</v>
       </c>
       <c r="K14">
-        <v>1.026009076371859</v>
+        <v>1.033305887768524</v>
       </c>
       <c r="L14">
-        <v>1.014920404143669</v>
+        <v>1.050470423285818</v>
       </c>
       <c r="M14">
-        <v>1.02121369727362</v>
+        <v>1.055487549418482</v>
       </c>
       <c r="N14">
-        <v>1.010634102659777</v>
+        <v>1.014261167600765</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.990447552718806</v>
+        <v>1.024065397446773</v>
       </c>
       <c r="D15">
-        <v>1.011577821233494</v>
+        <v>1.02976930645239</v>
       </c>
       <c r="E15">
-        <v>1.000497565693214</v>
+        <v>1.047047703536736</v>
       </c>
       <c r="F15">
-        <v>1.006921483224714</v>
+        <v>1.052083876639767</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042270752974514</v>
+        <v>1.035749659201159</v>
       </c>
       <c r="J15">
-        <v>1.020069665241777</v>
+        <v>1.030683094954229</v>
       </c>
       <c r="K15">
-        <v>1.026213917106829</v>
+        <v>1.033343775074268</v>
       </c>
       <c r="L15">
-        <v>1.015338229291703</v>
+        <v>1.050558741140611</v>
       </c>
       <c r="M15">
-        <v>1.02164283145603</v>
+        <v>1.05557685865836</v>
       </c>
       <c r="N15">
-        <v>1.010705167016093</v>
+        <v>1.014274708188899</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9928882849742032</v>
+        <v>1.024524758807009</v>
       </c>
       <c r="D16">
-        <v>1.013297597587754</v>
+        <v>1.030105481559078</v>
       </c>
       <c r="E16">
-        <v>1.003479864822848</v>
+        <v>1.047676624118539</v>
       </c>
       <c r="F16">
-        <v>1.009963936718933</v>
+        <v>1.052717876569519</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043083436166549</v>
+        <v>1.03586382561158</v>
       </c>
       <c r="J16">
-        <v>1.021309234200404</v>
+        <v>1.030921364794414</v>
       </c>
       <c r="K16">
-        <v>1.027394854850311</v>
+        <v>1.03356413468017</v>
       </c>
       <c r="L16">
-        <v>1.017750078282218</v>
+        <v>1.051073032518374</v>
       </c>
       <c r="M16">
-        <v>1.024119433562221</v>
+        <v>1.056096848877461</v>
       </c>
       <c r="N16">
-        <v>1.011114992682597</v>
+        <v>1.014353482394084</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9944017634568132</v>
+        <v>1.024813040907517</v>
       </c>
       <c r="D17">
-        <v>1.014365057291362</v>
+        <v>1.030316449794441</v>
       </c>
       <c r="E17">
-        <v>1.005330482087132</v>
+        <v>1.048071543767124</v>
       </c>
       <c r="F17">
-        <v>1.011851353936301</v>
+        <v>1.05311591896182</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043584195949709</v>
+        <v>1.035935060746958</v>
       </c>
       <c r="J17">
-        <v>1.022076786615157</v>
+        <v>1.031070730336985</v>
       </c>
       <c r="K17">
-        <v>1.028125817362737</v>
+        <v>1.033702217793935</v>
       </c>
       <c r="L17">
-        <v>1.01924568973816</v>
+        <v>1.051395847360066</v>
       </c>
       <c r="M17">
-        <v>1.025654728613969</v>
+        <v>1.056423175427204</v>
       </c>
       <c r="N17">
-        <v>1.011368776841683</v>
+        <v>1.014402861699712</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9952783741807949</v>
+        <v>1.024981239743167</v>
       </c>
       <c r="D18">
-        <v>1.014983691954137</v>
+        <v>1.030439537479612</v>
       </c>
       <c r="E18">
-        <v>1.006402863708446</v>
+        <v>1.048302042684701</v>
       </c>
       <c r="F18">
-        <v>1.012944867750833</v>
+        <v>1.053348216444191</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043873081466725</v>
+        <v>1.035976474372822</v>
       </c>
       <c r="J18">
-        <v>1.022520953293233</v>
+        <v>1.031157818194475</v>
       </c>
       <c r="K18">
-        <v>1.028548704267079</v>
+        <v>1.033782707558527</v>
       </c>
       <c r="L18">
-        <v>1.020111983129902</v>
+        <v>1.051584216390453</v>
       </c>
       <c r="M18">
-        <v>1.026543835310403</v>
+        <v>1.056613570026381</v>
       </c>
       <c r="N18">
-        <v>1.011515641993341</v>
+        <v>1.014431651552682</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9955762413335275</v>
+        <v>1.025038599417941</v>
       </c>
       <c r="D19">
-        <v>1.015193959867729</v>
+        <v>1.030481512825241</v>
       </c>
       <c r="E19">
-        <v>1.006767339646195</v>
+        <v>1.048380662091594</v>
       </c>
       <c r="F19">
-        <v>1.013316493152725</v>
+        <v>1.05342744523159</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043971045906393</v>
+        <v>1.035990572152623</v>
       </c>
       <c r="J19">
-        <v>1.02267180964519</v>
+        <v>1.031187507011276</v>
       </c>
       <c r="K19">
-        <v>1.028692314884964</v>
+        <v>1.033810143670269</v>
       </c>
       <c r="L19">
-        <v>1.020406351274914</v>
+        <v>1.051648458322675</v>
       </c>
       <c r="M19">
-        <v>1.026845925942334</v>
+        <v>1.056678498762639</v>
       </c>
       <c r="N19">
-        <v>1.011565524035804</v>
+        <v>1.014441466057046</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9942400234419235</v>
+        <v>1.024782105910035</v>
       </c>
       <c r="D20">
-        <v>1.01425094410872</v>
+        <v>1.030293811423435</v>
       </c>
       <c r="E20">
-        <v>1.005132662036345</v>
+        <v>1.048029157209512</v>
       </c>
       <c r="F20">
-        <v>1.011649620083853</v>
+        <v>1.053073199729115</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043530801169135</v>
+        <v>1.035927432017307</v>
       </c>
       <c r="J20">
-        <v>1.021994802531761</v>
+        <v>1.031054708392031</v>
       </c>
       <c r="K20">
-        <v>1.028047752449871</v>
+        <v>1.033687408130072</v>
       </c>
       <c r="L20">
-        <v>1.019085856210875</v>
+        <v>1.051361204452671</v>
       </c>
       <c r="M20">
-        <v>1.025490671976387</v>
+        <v>1.056388158099172</v>
       </c>
       <c r="N20">
-        <v>1.011341668976364</v>
+        <v>1.014397565032887</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9898222720071274</v>
+        <v>1.023948797752989</v>
       </c>
       <c r="D21">
-        <v>1.011137576567356</v>
+        <v>1.029683973500229</v>
       </c>
       <c r="E21">
-        <v>0.9997339333743802</v>
+        <v>1.046888134304598</v>
       </c>
       <c r="F21">
-        <v>1.006142285430109</v>
+        <v>1.051922998122244</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042061572855235</v>
+        <v>1.035720553245048</v>
       </c>
       <c r="J21">
-        <v>1.019751770324385</v>
+        <v>1.030622563848218</v>
       </c>
       <c r="K21">
-        <v>1.025910972310268</v>
+        <v>1.033287777053237</v>
       </c>
       <c r="L21">
-        <v>1.014720348223557</v>
+        <v>1.050428216891124</v>
       </c>
       <c r="M21">
-        <v>1.021008217284732</v>
+        <v>1.05544486794018</v>
       </c>
       <c r="N21">
-        <v>1.010600070183339</v>
+        <v>1.014254695337588</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9869859306742554</v>
+        <v>1.02342531507955</v>
       </c>
       <c r="D22">
-        <v>1.009142334372682</v>
+        <v>1.029300857900241</v>
       </c>
       <c r="E22">
-        <v>0.9962718089055965</v>
+        <v>1.046172077900707</v>
       </c>
       <c r="F22">
-        <v>1.002608797916293</v>
+        <v>1.051200965261707</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041107903192392</v>
+        <v>1.035589254652746</v>
       </c>
       <c r="J22">
-        <v>1.018308145432961</v>
+        <v>1.030350553988877</v>
       </c>
       <c r="K22">
-        <v>1.024534829699882</v>
+        <v>1.033036054620593</v>
       </c>
       <c r="L22">
-        <v>1.011917485557856</v>
+        <v>1.049842307674263</v>
       </c>
       <c r="M22">
-        <v>1.018128750559889</v>
+        <v>1.054852276919702</v>
       </c>
       <c r="N22">
-        <v>1.010122833174411</v>
+        <v>1.01416475972342</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9884952505709124</v>
+        <v>1.023702779798712</v>
       </c>
       <c r="D23">
-        <v>1.010203715038976</v>
+        <v>1.029503924408904</v>
       </c>
       <c r="E23">
-        <v>0.9981137779214494</v>
+        <v>1.04655154459976</v>
       </c>
       <c r="F23">
-        <v>1.004488893701437</v>
+        <v>1.051583619634525</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041616351011736</v>
+        <v>1.035658974453361</v>
       </c>
       <c r="J23">
-        <v>1.019076674405492</v>
+        <v>1.030494779950431</v>
       </c>
       <c r="K23">
-        <v>1.025267515070847</v>
+        <v>1.033169540520666</v>
       </c>
       <c r="L23">
-        <v>1.013409013799679</v>
+        <v>1.050152842816373</v>
       </c>
       <c r="M23">
-        <v>1.019661183078071</v>
+        <v>1.055166373524204</v>
       </c>
       <c r="N23">
-        <v>1.010376889380313</v>
+        <v>1.014212446378854</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9943131258454129</v>
+        <v>1.024796083953358</v>
       </c>
       <c r="D24">
-        <v>1.014302519276791</v>
+        <v>1.030304040625606</v>
       </c>
       <c r="E24">
-        <v>1.005222070151868</v>
+        <v>1.048048309410199</v>
       </c>
       <c r="F24">
-        <v>1.011740797704848</v>
+        <v>1.053092502322059</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043554937847315</v>
+        <v>1.035930879534091</v>
       </c>
       <c r="J24">
-        <v>1.02203185851463</v>
+        <v>1.031061948126147</v>
       </c>
       <c r="K24">
-        <v>1.028083037336345</v>
+        <v>1.03369410013983</v>
       </c>
       <c r="L24">
-        <v>1.019158096829312</v>
+        <v>1.051376857854756</v>
       </c>
       <c r="M24">
-        <v>1.025564821866363</v>
+        <v>1.056403980756137</v>
       </c>
       <c r="N24">
-        <v>1.011353921442404</v>
+        <v>1.014399958406564</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.000823550439367</v>
+        <v>1.026066709194281</v>
       </c>
       <c r="D25">
-        <v>1.018902949716401</v>
+        <v>1.031233838046156</v>
       </c>
       <c r="E25">
-        <v>1.013196039278155</v>
+        <v>1.049791061221498</v>
       </c>
       <c r="F25">
-        <v>1.019868409640523</v>
+        <v>1.05484841841079</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045679538777028</v>
+        <v>1.03624104807203</v>
       </c>
       <c r="J25">
-        <v>1.025323230578024</v>
+        <v>1.031718756361695</v>
       </c>
       <c r="K25">
-        <v>1.031214741269447</v>
+        <v>1.034300786965223</v>
       </c>
       <c r="L25">
-        <v>1.025592900158244</v>
+        <v>1.052800260140162</v>
       </c>
       <c r="M25">
-        <v>1.032165929307326</v>
+        <v>1.057842263116105</v>
       </c>
       <c r="N25">
-        <v>1.012442311204794</v>
+        <v>1.014617073298836</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_76/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_76/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027081630696739</v>
+        <v>1.005836934207256</v>
       </c>
       <c r="D2">
-        <v>1.031976431707556</v>
+        <v>1.022454878380619</v>
       </c>
       <c r="E2">
-        <v>1.051185743070378</v>
+        <v>1.019354644077131</v>
       </c>
       <c r="F2">
-        <v>1.056252872354429</v>
+        <v>1.026139464683327</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036484085736854</v>
+        <v>1.047278532525253</v>
       </c>
       <c r="J2">
-        <v>1.032241487854122</v>
+        <v>1.027844454222728</v>
       </c>
       <c r="K2">
-        <v>1.034782994692483</v>
+        <v>1.033609999748592</v>
       </c>
       <c r="L2">
-        <v>1.053937944986846</v>
+        <v>1.030550765683141</v>
       </c>
       <c r="M2">
-        <v>1.058991091804023</v>
+        <v>1.03724626145625</v>
       </c>
       <c r="N2">
-        <v>1.014789840171217</v>
+        <v>1.013276154155373</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027819378218896</v>
+        <v>1.009379925561688</v>
       </c>
       <c r="D3">
-        <v>1.032516163129518</v>
+        <v>1.024969691784897</v>
       </c>
       <c r="E3">
-        <v>1.052201094046537</v>
+        <v>1.023718703598023</v>
       </c>
       <c r="F3">
-        <v>1.05727489483773</v>
+        <v>1.03057949973534</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036658014836282</v>
+        <v>1.048386489729902</v>
       </c>
       <c r="J3">
-        <v>1.032620357739459</v>
+        <v>1.029618109906449</v>
       </c>
       <c r="K3">
-        <v>1.035132122626628</v>
+        <v>1.035292746335424</v>
       </c>
       <c r="L3">
-        <v>1.054765370111054</v>
+        <v>1.034056833905657</v>
       </c>
       <c r="M3">
-        <v>1.059826185945831</v>
+        <v>1.040835507841295</v>
       </c>
       <c r="N3">
-        <v>1.014915043249939</v>
+        <v>1.013862806829657</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028297121612007</v>
+        <v>1.011629611813443</v>
       </c>
       <c r="D4">
-        <v>1.032865646051346</v>
+        <v>1.026568425595144</v>
       </c>
       <c r="E4">
-        <v>1.052859331786878</v>
+        <v>1.026495547014947</v>
       </c>
       <c r="F4">
-        <v>1.057937252715385</v>
+        <v>1.033402934770603</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036769379671436</v>
+        <v>1.049079590602094</v>
       </c>
       <c r="J4">
-        <v>1.0328651907583</v>
+        <v>1.030740437756612</v>
       </c>
       <c r="K4">
-        <v>1.03535756313696</v>
+        <v>1.036356428709392</v>
       </c>
       <c r="L4">
-        <v>1.055301395536222</v>
+        <v>1.036284374534081</v>
       </c>
       <c r="M4">
-        <v>1.06036697753495</v>
+        <v>1.043114261548</v>
       </c>
       <c r="N4">
-        <v>1.014995944155833</v>
+        <v>1.014234044610094</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028498052129278</v>
+        <v>1.012565412425942</v>
       </c>
       <c r="D5">
-        <v>1.033012624550583</v>
+        <v>1.027233872968667</v>
       </c>
       <c r="E5">
-        <v>1.053136350057217</v>
+        <v>1.027652075787579</v>
       </c>
       <c r="F5">
-        <v>1.058215955884468</v>
+        <v>1.034578443246075</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036815914449214</v>
+        <v>1.049365369114203</v>
       </c>
       <c r="J5">
-        <v>1.032968040560766</v>
+        <v>1.031206339368399</v>
       </c>
       <c r="K5">
-        <v>1.035452224986213</v>
+        <v>1.036797707704505</v>
       </c>
       <c r="L5">
-        <v>1.055526889431897</v>
+        <v>1.037211307759233</v>
       </c>
       <c r="M5">
-        <v>1.060594428036845</v>
+        <v>1.044062107049325</v>
       </c>
       <c r="N5">
-        <v>1.015029927248775</v>
+        <v>1.014388156392497</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028531794310324</v>
+        <v>1.012721961304542</v>
       </c>
       <c r="D6">
-        <v>1.033037306113961</v>
+        <v>1.027345218675331</v>
       </c>
       <c r="E6">
-        <v>1.053182879915242</v>
+        <v>1.02784563659032</v>
       </c>
       <c r="F6">
-        <v>1.058262765873286</v>
+        <v>1.03477515542435</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036823711225815</v>
+        <v>1.049413027006538</v>
       </c>
       <c r="J6">
-        <v>1.032985304888719</v>
+        <v>1.031284222890697</v>
       </c>
       <c r="K6">
-        <v>1.035468112447218</v>
+        <v>1.036871458546913</v>
       </c>
       <c r="L6">
-        <v>1.055564759544347</v>
+        <v>1.037366394406563</v>
       </c>
       <c r="M6">
-        <v>1.060632623907335</v>
+        <v>1.044220668930765</v>
       </c>
       <c r="N6">
-        <v>1.015035631526975</v>
+        <v>1.014413919009157</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028299806114956</v>
+        <v>1.011642154810394</v>
       </c>
       <c r="D7">
-        <v>1.032867609767851</v>
+        <v>1.026577343288912</v>
       </c>
       <c r="E7">
-        <v>1.05286303216042</v>
+        <v>1.026511042756227</v>
       </c>
       <c r="F7">
-        <v>1.057940975788243</v>
+        <v>1.033418686496221</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036770002584359</v>
+        <v>1.049083431064908</v>
       </c>
       <c r="J7">
-        <v>1.032866565350281</v>
+        <v>1.030746686252717</v>
       </c>
       <c r="K7">
-        <v>1.035358828460029</v>
+        <v>1.036362348085377</v>
       </c>
       <c r="L7">
-        <v>1.055304408013314</v>
+        <v>1.036296797274208</v>
       </c>
       <c r="M7">
-        <v>1.060370016341488</v>
+        <v>1.043126966137196</v>
       </c>
       <c r="N7">
-        <v>1.014996398348712</v>
+        <v>1.014236111487383</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027330877986616</v>
+        <v>1.007043361951896</v>
       </c>
       <c r="D8">
-        <v>1.032158785616958</v>
+        <v>1.023310779181915</v>
       </c>
       <c r="E8">
-        <v>1.051528628676912</v>
+        <v>1.020839472197142</v>
       </c>
       <c r="F8">
-        <v>1.056598053311973</v>
+        <v>1.027650505938385</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036543109535508</v>
+        <v>1.047657967081054</v>
       </c>
       <c r="J8">
-        <v>1.032369594525596</v>
+        <v>1.028449205562196</v>
       </c>
       <c r="K8">
-        <v>1.034901080446795</v>
+        <v>1.034183984226267</v>
       </c>
       <c r="L8">
-        <v>1.054217446911642</v>
+        <v>1.03174436887609</v>
       </c>
       <c r="M8">
-        <v>1.059273226063735</v>
+        <v>1.038468519473523</v>
       </c>
       <c r="N8">
-        <v>1.014832176478643</v>
+        <v>1.013476176826039</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.025626423547644</v>
+        <v>0.998597505334746</v>
       </c>
       <c r="D9">
-        <v>1.030911665571131</v>
+        <v>1.017328389702095</v>
       </c>
       <c r="E9">
-        <v>1.049186772138971</v>
+        <v>1.010466877550344</v>
       </c>
       <c r="F9">
-        <v>1.054239682531164</v>
+        <v>1.017087624490341</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036134299557895</v>
+        <v>1.044958852881794</v>
       </c>
       <c r="J9">
-        <v>1.031491458371867</v>
+        <v>1.024199886697284</v>
       </c>
       <c r="K9">
-        <v>1.034090931986845</v>
+        <v>1.030146445560738</v>
       </c>
       <c r="L9">
-        <v>1.052306924625686</v>
+        <v>1.023392389231874</v>
       </c>
       <c r="M9">
-        <v>1.057343886025878</v>
+        <v>1.029909419527322</v>
       </c>
       <c r="N9">
-        <v>1.014541941759744</v>
+        <v>1.012070821619122</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024492186793902</v>
+        <v>0.9927164016314785</v>
       </c>
       <c r="D10">
-        <v>1.030081644689576</v>
+        <v>1.013176417918297</v>
       </c>
       <c r="E10">
-        <v>1.047632014581135</v>
+        <v>1.003269759370203</v>
       </c>
       <c r="F10">
-        <v>1.05267291103865</v>
+        <v>1.009749627246873</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035855756887132</v>
+        <v>1.043026409072183</v>
       </c>
       <c r="J10">
-        <v>1.03090448040382</v>
+        <v>1.02122201033811</v>
       </c>
       <c r="K10">
-        <v>1.033548522980391</v>
+        <v>1.027311774828528</v>
       </c>
       <c r="L10">
-        <v>1.051036561722458</v>
+        <v>1.017580227200341</v>
       </c>
       <c r="M10">
-        <v>1.056059978149116</v>
+        <v>1.023945052499394</v>
       </c>
       <c r="N10">
-        <v>1.014347900407533</v>
+        <v>1.011086153692631</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024001561398558</v>
+        <v>0.9901055140739976</v>
       </c>
       <c r="D11">
-        <v>1.029722588409846</v>
+        <v>1.01133698311227</v>
       </c>
       <c r="E11">
-        <v>1.046960339044985</v>
+        <v>1.000079827732246</v>
       </c>
       <c r="F11">
-        <v>1.051995796335812</v>
+        <v>1.006495238346457</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035733730592286</v>
+        <v>1.042156376642462</v>
       </c>
       <c r="J11">
-        <v>1.030649957903153</v>
+        <v>1.019895788060436</v>
       </c>
       <c r="K11">
-        <v>1.033313120448971</v>
+        <v>1.026048221309187</v>
       </c>
       <c r="L11">
-        <v>1.050487280764635</v>
+        <v>1.015000238776143</v>
       </c>
       <c r="M11">
-        <v>1.055504596412129</v>
+        <v>1.021295694773396</v>
       </c>
       <c r="N11">
-        <v>1.014263752421027</v>
+        <v>1.010647682517819</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.023819399125641</v>
+        <v>0.989125605390898</v>
       </c>
       <c r="D12">
-        <v>1.0295892729924</v>
+        <v>1.010647234602143</v>
       </c>
       <c r="E12">
-        <v>1.046711082076628</v>
+        <v>0.9988832952000103</v>
       </c>
       <c r="F12">
-        <v>1.05174448350173</v>
+        <v>1.005274232577569</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035688192679507</v>
+        <v>1.04182805320688</v>
       </c>
       <c r="J12">
-        <v>1.030555364372796</v>
+        <v>1.019397427488738</v>
       </c>
       <c r="K12">
-        <v>1.033225602119187</v>
+        <v>1.025573254245481</v>
       </c>
       <c r="L12">
-        <v>1.050283373757654</v>
+        <v>1.01403192082862</v>
       </c>
       <c r="M12">
-        <v>1.055298388008442</v>
+        <v>1.020301079428043</v>
       </c>
       <c r="N12">
-        <v>1.014232477452472</v>
+        <v>1.010482926252692</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.023858470001129</v>
+        <v>0.9893362639914552</v>
       </c>
       <c r="D13">
-        <v>1.02961786712704</v>
+        <v>1.010795486334973</v>
       </c>
       <c r="E13">
-        <v>1.046764537969669</v>
+        <v>0.9991404927690526</v>
       </c>
       <c r="F13">
-        <v>1.051798381990604</v>
+        <v>1.005536703961031</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035697970293932</v>
+        <v>1.041898715566865</v>
       </c>
       <c r="J13">
-        <v>1.030575657365797</v>
+        <v>1.019504591005339</v>
       </c>
       <c r="K13">
-        <v>1.03324437867013</v>
+        <v>1.02567539427165</v>
       </c>
       <c r="L13">
-        <v>1.050327107038104</v>
+        <v>1.014240088797628</v>
       </c>
       <c r="M13">
-        <v>1.055342616541608</v>
+        <v>1.020514912456061</v>
       </c>
       <c r="N13">
-        <v>1.014239186877517</v>
+        <v>1.010518353664461</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.023986502210239</v>
+        <v>0.9900247233919653</v>
       </c>
       <c r="D14">
-        <v>1.029711567402686</v>
+        <v>1.011280102390236</v>
       </c>
       <c r="E14">
-        <v>1.046939730621678</v>
+        <v>0.9999811632531437</v>
       </c>
       <c r="F14">
-        <v>1.051975018697976</v>
+        <v>1.006394561803238</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035729970732866</v>
+        <v>1.042129343413617</v>
       </c>
       <c r="J14">
-        <v>1.030642139837777</v>
+        <v>1.019854711864048</v>
       </c>
       <c r="K14">
-        <v>1.033305887768524</v>
+        <v>1.026009076371859</v>
       </c>
       <c r="L14">
-        <v>1.050470423285818</v>
+        <v>1.014920404143669</v>
       </c>
       <c r="M14">
-        <v>1.055487549418482</v>
+        <v>1.02121369727362</v>
       </c>
       <c r="N14">
-        <v>1.014261167600765</v>
+        <v>1.010634102659777</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024065397446773</v>
+        <v>0.9904475527188062</v>
       </c>
       <c r="D15">
-        <v>1.02976930645239</v>
+        <v>1.011577821233494</v>
       </c>
       <c r="E15">
-        <v>1.047047703536736</v>
+        <v>1.000497565693214</v>
       </c>
       <c r="F15">
-        <v>1.052083876639767</v>
+        <v>1.006921483224714</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035749659201159</v>
+        <v>1.042270752974514</v>
       </c>
       <c r="J15">
-        <v>1.030683094954229</v>
+        <v>1.020069665241777</v>
       </c>
       <c r="K15">
-        <v>1.033343775074268</v>
+        <v>1.026213917106829</v>
       </c>
       <c r="L15">
-        <v>1.050558741140611</v>
+        <v>1.015338229291703</v>
       </c>
       <c r="M15">
-        <v>1.05557685865836</v>
+        <v>1.02164283145603</v>
       </c>
       <c r="N15">
-        <v>1.014274708188899</v>
+        <v>1.010705167016093</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.024524758807009</v>
+        <v>0.9928882849742041</v>
       </c>
       <c r="D16">
-        <v>1.030105481559078</v>
+        <v>1.013297597587755</v>
       </c>
       <c r="E16">
-        <v>1.047676624118539</v>
+        <v>1.003479864822849</v>
       </c>
       <c r="F16">
-        <v>1.052717876569519</v>
+        <v>1.009963936718934</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03586382561158</v>
+        <v>1.04308343616655</v>
       </c>
       <c r="J16">
-        <v>1.030921364794414</v>
+        <v>1.021309234200404</v>
       </c>
       <c r="K16">
-        <v>1.03356413468017</v>
+        <v>1.027394854850312</v>
       </c>
       <c r="L16">
-        <v>1.051073032518374</v>
+        <v>1.017750078282218</v>
       </c>
       <c r="M16">
-        <v>1.056096848877461</v>
+        <v>1.024119433562221</v>
       </c>
       <c r="N16">
-        <v>1.014353482394084</v>
+        <v>1.011114992682597</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.024813040907517</v>
+        <v>0.994401763456813</v>
       </c>
       <c r="D17">
-        <v>1.030316449794441</v>
+        <v>1.014365057291361</v>
       </c>
       <c r="E17">
-        <v>1.048071543767124</v>
+        <v>1.005330482087131</v>
       </c>
       <c r="F17">
-        <v>1.05311591896182</v>
+        <v>1.011851353936301</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035935060746958</v>
+        <v>1.043584195949708</v>
       </c>
       <c r="J17">
-        <v>1.031070730336985</v>
+        <v>1.022076786615157</v>
       </c>
       <c r="K17">
-        <v>1.033702217793935</v>
+        <v>1.028125817362737</v>
       </c>
       <c r="L17">
-        <v>1.051395847360066</v>
+        <v>1.01924568973816</v>
       </c>
       <c r="M17">
-        <v>1.056423175427204</v>
+        <v>1.025654728613969</v>
       </c>
       <c r="N17">
-        <v>1.014402861699712</v>
+        <v>1.011368776841683</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.024981239743167</v>
+        <v>0.9952783741807948</v>
       </c>
       <c r="D18">
-        <v>1.030439537479612</v>
+        <v>1.014983691954137</v>
       </c>
       <c r="E18">
-        <v>1.048302042684701</v>
+        <v>1.006402863708446</v>
       </c>
       <c r="F18">
-        <v>1.053348216444191</v>
+        <v>1.012944867750833</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035976474372822</v>
+        <v>1.043873081466725</v>
       </c>
       <c r="J18">
-        <v>1.031157818194475</v>
+        <v>1.022520953293233</v>
       </c>
       <c r="K18">
-        <v>1.033782707558527</v>
+        <v>1.028548704267079</v>
       </c>
       <c r="L18">
-        <v>1.051584216390453</v>
+        <v>1.020111983129902</v>
       </c>
       <c r="M18">
-        <v>1.056613570026381</v>
+        <v>1.026543835310403</v>
       </c>
       <c r="N18">
-        <v>1.014431651552682</v>
+        <v>1.011515641993341</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025038599417941</v>
+        <v>0.9955762413335272</v>
       </c>
       <c r="D19">
-        <v>1.030481512825241</v>
+        <v>1.015193959867729</v>
       </c>
       <c r="E19">
-        <v>1.048380662091594</v>
+        <v>1.006767339646194</v>
       </c>
       <c r="F19">
-        <v>1.05342744523159</v>
+        <v>1.013316493152724</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035990572152623</v>
+        <v>1.043971045906393</v>
       </c>
       <c r="J19">
-        <v>1.031187507011276</v>
+        <v>1.022671809645189</v>
       </c>
       <c r="K19">
-        <v>1.033810143670269</v>
+        <v>1.028692314884963</v>
       </c>
       <c r="L19">
-        <v>1.051648458322675</v>
+        <v>1.020406351274913</v>
       </c>
       <c r="M19">
-        <v>1.056678498762639</v>
+        <v>1.026845925942333</v>
       </c>
       <c r="N19">
-        <v>1.014441466057046</v>
+        <v>1.011565524035804</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.024782105910035</v>
+        <v>0.9942400234419234</v>
       </c>
       <c r="D20">
-        <v>1.030293811423435</v>
+        <v>1.01425094410872</v>
       </c>
       <c r="E20">
-        <v>1.048029157209512</v>
+        <v>1.005132662036345</v>
       </c>
       <c r="F20">
-        <v>1.053073199729115</v>
+        <v>1.011649620083853</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035927432017307</v>
+        <v>1.043530801169136</v>
       </c>
       <c r="J20">
-        <v>1.031054708392031</v>
+        <v>1.021994802531761</v>
       </c>
       <c r="K20">
-        <v>1.033687408130072</v>
+        <v>1.028047752449871</v>
       </c>
       <c r="L20">
-        <v>1.051361204452671</v>
+        <v>1.019085856210875</v>
       </c>
       <c r="M20">
-        <v>1.056388158099172</v>
+        <v>1.025490671976387</v>
       </c>
       <c r="N20">
-        <v>1.014397565032887</v>
+        <v>1.011341668976364</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.023948797752989</v>
+        <v>0.989822272007128</v>
       </c>
       <c r="D21">
-        <v>1.029683973500229</v>
+        <v>1.011137576567357</v>
       </c>
       <c r="E21">
-        <v>1.046888134304598</v>
+        <v>0.9997339333743803</v>
       </c>
       <c r="F21">
-        <v>1.051922998122244</v>
+        <v>1.006142285430109</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035720553245048</v>
+        <v>1.042061572855236</v>
       </c>
       <c r="J21">
-        <v>1.030622563848218</v>
+        <v>1.019751770324386</v>
       </c>
       <c r="K21">
-        <v>1.033287777053237</v>
+        <v>1.025910972310268</v>
       </c>
       <c r="L21">
-        <v>1.050428216891124</v>
+        <v>1.014720348223557</v>
       </c>
       <c r="M21">
-        <v>1.05544486794018</v>
+        <v>1.021008217284732</v>
       </c>
       <c r="N21">
-        <v>1.014254695337588</v>
+        <v>1.010600070183339</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.02342531507955</v>
+        <v>0.9869859306742551</v>
       </c>
       <c r="D22">
-        <v>1.029300857900241</v>
+        <v>1.009142334372682</v>
       </c>
       <c r="E22">
-        <v>1.046172077900707</v>
+        <v>0.9962718089055963</v>
       </c>
       <c r="F22">
-        <v>1.051200965261707</v>
+        <v>1.002608797916293</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035589254652746</v>
+        <v>1.041107903192391</v>
       </c>
       <c r="J22">
-        <v>1.030350553988877</v>
+        <v>1.018308145432961</v>
       </c>
       <c r="K22">
-        <v>1.033036054620593</v>
+        <v>1.024534829699882</v>
       </c>
       <c r="L22">
-        <v>1.049842307674263</v>
+        <v>1.011917485557856</v>
       </c>
       <c r="M22">
-        <v>1.054852276919702</v>
+        <v>1.018128750559888</v>
       </c>
       <c r="N22">
-        <v>1.01416475972342</v>
+        <v>1.010122833174411</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.023702779798712</v>
+        <v>0.988495250570912</v>
       </c>
       <c r="D23">
-        <v>1.029503924408904</v>
+        <v>1.010203715038976</v>
       </c>
       <c r="E23">
-        <v>1.04655154459976</v>
+        <v>0.9981137779214491</v>
       </c>
       <c r="F23">
-        <v>1.051583619634525</v>
+        <v>1.004488893701436</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035658974453361</v>
+        <v>1.041616351011735</v>
       </c>
       <c r="J23">
-        <v>1.030494779950431</v>
+        <v>1.019076674405492</v>
       </c>
       <c r="K23">
-        <v>1.033169540520666</v>
+        <v>1.025267515070847</v>
       </c>
       <c r="L23">
-        <v>1.050152842816373</v>
+        <v>1.013409013799679</v>
       </c>
       <c r="M23">
-        <v>1.055166373524204</v>
+        <v>1.01966118307807</v>
       </c>
       <c r="N23">
-        <v>1.014212446378854</v>
+        <v>1.010376889380313</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024796083953358</v>
+        <v>0.994313125845412</v>
       </c>
       <c r="D24">
-        <v>1.030304040625606</v>
+        <v>1.014302519276791</v>
       </c>
       <c r="E24">
-        <v>1.048048309410199</v>
+        <v>1.005222070151868</v>
       </c>
       <c r="F24">
-        <v>1.053092502322059</v>
+        <v>1.011740797704848</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035930879534091</v>
+        <v>1.043554937847314</v>
       </c>
       <c r="J24">
-        <v>1.031061948126147</v>
+        <v>1.02203185851463</v>
       </c>
       <c r="K24">
-        <v>1.03369410013983</v>
+        <v>1.028083037336344</v>
       </c>
       <c r="L24">
-        <v>1.051376857854756</v>
+        <v>1.019158096829312</v>
       </c>
       <c r="M24">
-        <v>1.056403980756137</v>
+        <v>1.025564821866362</v>
       </c>
       <c r="N24">
-        <v>1.014399958406564</v>
+        <v>1.011353921442404</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026066709194281</v>
+        <v>1.000823550439367</v>
       </c>
       <c r="D25">
-        <v>1.031233838046156</v>
+        <v>1.018902949716401</v>
       </c>
       <c r="E25">
-        <v>1.049791061221498</v>
+        <v>1.013196039278155</v>
       </c>
       <c r="F25">
-        <v>1.05484841841079</v>
+        <v>1.019868409640523</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03624104807203</v>
+        <v>1.045679538777028</v>
       </c>
       <c r="J25">
-        <v>1.031718756361695</v>
+        <v>1.025323230578024</v>
       </c>
       <c r="K25">
-        <v>1.034300786965223</v>
+        <v>1.031214741269446</v>
       </c>
       <c r="L25">
-        <v>1.052800260140162</v>
+        <v>1.025592900158244</v>
       </c>
       <c r="M25">
-        <v>1.057842263116105</v>
+        <v>1.032165929307325</v>
       </c>
       <c r="N25">
-        <v>1.014617073298836</v>
+        <v>1.012442311204794</v>
       </c>
     </row>
   </sheetData>
